--- a/ArGeZi_aleph_custom04.xlsx
+++ b/ArGeZi_aleph_custom04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3094" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3094" uniqueCount="394">
   <si>
     <t>911##c</t>
   </si>
@@ -1187,6 +1187,9 @@
   </si>
   <si>
     <t>NOULI</t>
+  </si>
+  <si>
+    <t>NOOCLC</t>
   </si>
   <si>
     <t>MX</t>
@@ -1629,13 +1632,13 @@
         <v>390</v>
       </c>
       <c r="K2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1670,13 +1673,13 @@
         <v>390</v>
       </c>
       <c r="K3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1711,13 +1714,13 @@
         <v>390</v>
       </c>
       <c r="K4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1752,13 +1755,13 @@
         <v>390</v>
       </c>
       <c r="K5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L5" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1793,13 +1796,13 @@
         <v>390</v>
       </c>
       <c r="K6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1834,13 +1837,13 @@
         <v>390</v>
       </c>
       <c r="K7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1875,13 +1878,13 @@
         <v>390</v>
       </c>
       <c r="K8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L8" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1916,13 +1919,13 @@
         <v>390</v>
       </c>
       <c r="K9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L9" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M9" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1957,13 +1960,13 @@
         <v>390</v>
       </c>
       <c r="K10" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L10" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M10" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1998,13 +2001,13 @@
         <v>390</v>
       </c>
       <c r="K11" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L11" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M11" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -2039,13 +2042,13 @@
         <v>390</v>
       </c>
       <c r="K12" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L12" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M12" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -2080,13 +2083,13 @@
         <v>390</v>
       </c>
       <c r="K13" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L13" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M13" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -2121,13 +2124,13 @@
         <v>390</v>
       </c>
       <c r="K14" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L14" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M14" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -2162,13 +2165,13 @@
         <v>390</v>
       </c>
       <c r="K15" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L15" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M15" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -2203,13 +2206,13 @@
         <v>390</v>
       </c>
       <c r="K16" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L16" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M16" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2244,13 +2247,13 @@
         <v>390</v>
       </c>
       <c r="K17" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L17" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M17" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -2285,13 +2288,13 @@
         <v>390</v>
       </c>
       <c r="K18" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L18" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M18" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2326,13 +2329,13 @@
         <v>390</v>
       </c>
       <c r="K19" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L19" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M19" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2367,13 +2370,13 @@
         <v>390</v>
       </c>
       <c r="K20" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L20" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M20" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2408,13 +2411,13 @@
         <v>390</v>
       </c>
       <c r="K21" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L21" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M21" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2449,13 +2452,13 @@
         <v>390</v>
       </c>
       <c r="K22" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L22" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M22" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2490,13 +2493,13 @@
         <v>390</v>
       </c>
       <c r="K23" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L23" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M23" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2531,13 +2534,13 @@
         <v>390</v>
       </c>
       <c r="K24" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L24" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M24" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2572,13 +2575,13 @@
         <v>390</v>
       </c>
       <c r="K25" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L25" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M25" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2613,13 +2616,13 @@
         <v>390</v>
       </c>
       <c r="K26" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L26" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M26" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2654,13 +2657,13 @@
         <v>390</v>
       </c>
       <c r="K27" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L27" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M27" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2695,13 +2698,13 @@
         <v>390</v>
       </c>
       <c r="K28" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L28" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M28" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2736,13 +2739,13 @@
         <v>390</v>
       </c>
       <c r="K29" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L29" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M29" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2777,13 +2780,13 @@
         <v>390</v>
       </c>
       <c r="K30" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L30" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M30" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2818,13 +2821,13 @@
         <v>390</v>
       </c>
       <c r="K31" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L31" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M31" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2859,13 +2862,13 @@
         <v>390</v>
       </c>
       <c r="K32" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L32" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M32" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2900,13 +2903,13 @@
         <v>390</v>
       </c>
       <c r="K33" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L33" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M33" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2941,13 +2944,13 @@
         <v>390</v>
       </c>
       <c r="K34" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L34" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M34" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2982,13 +2985,13 @@
         <v>390</v>
       </c>
       <c r="K35" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L35" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M35" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -3023,13 +3026,13 @@
         <v>390</v>
       </c>
       <c r="K36" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L36" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M36" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -3064,13 +3067,13 @@
         <v>390</v>
       </c>
       <c r="K37" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L37" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M37" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -3105,13 +3108,13 @@
         <v>390</v>
       </c>
       <c r="K38" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L38" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M38" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -3146,13 +3149,13 @@
         <v>390</v>
       </c>
       <c r="K39" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L39" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M39" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -3187,13 +3190,13 @@
         <v>390</v>
       </c>
       <c r="K40" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L40" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M40" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -3228,13 +3231,13 @@
         <v>390</v>
       </c>
       <c r="K41" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L41" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M41" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -3269,13 +3272,13 @@
         <v>390</v>
       </c>
       <c r="K42" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L42" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M42" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -3310,13 +3313,13 @@
         <v>390</v>
       </c>
       <c r="K43" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L43" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M43" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -3351,13 +3354,13 @@
         <v>390</v>
       </c>
       <c r="K44" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L44" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M44" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -3392,13 +3395,13 @@
         <v>390</v>
       </c>
       <c r="K45" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L45" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M45" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -3433,13 +3436,13 @@
         <v>390</v>
       </c>
       <c r="K46" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L46" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M46" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -3474,13 +3477,13 @@
         <v>390</v>
       </c>
       <c r="K47" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L47" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M47" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -3515,13 +3518,13 @@
         <v>390</v>
       </c>
       <c r="K48" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L48" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M48" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -3556,13 +3559,13 @@
         <v>390</v>
       </c>
       <c r="K49" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L49" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M49" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -3597,13 +3600,13 @@
         <v>390</v>
       </c>
       <c r="K50" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L50" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M50" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -3638,13 +3641,13 @@
         <v>390</v>
       </c>
       <c r="K51" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L51" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M51" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -3679,13 +3682,13 @@
         <v>390</v>
       </c>
       <c r="K52" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L52" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M52" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -3720,13 +3723,13 @@
         <v>390</v>
       </c>
       <c r="K53" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L53" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M53" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -3761,13 +3764,13 @@
         <v>390</v>
       </c>
       <c r="K54" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L54" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M54" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3802,13 +3805,13 @@
         <v>390</v>
       </c>
       <c r="K55" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L55" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M55" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -3843,13 +3846,13 @@
         <v>390</v>
       </c>
       <c r="K56" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L56" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M56" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3884,13 +3887,13 @@
         <v>390</v>
       </c>
       <c r="K57" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L57" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M57" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3925,13 +3928,13 @@
         <v>390</v>
       </c>
       <c r="K58" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L58" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M58" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3966,13 +3969,13 @@
         <v>390</v>
       </c>
       <c r="K59" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L59" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M59" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -4007,13 +4010,13 @@
         <v>390</v>
       </c>
       <c r="K60" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L60" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M60" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -4048,13 +4051,13 @@
         <v>390</v>
       </c>
       <c r="K61" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L61" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M61" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -4089,13 +4092,13 @@
         <v>390</v>
       </c>
       <c r="K62" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L62" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M62" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -4130,13 +4133,13 @@
         <v>390</v>
       </c>
       <c r="K63" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L63" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M63" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -4171,13 +4174,13 @@
         <v>390</v>
       </c>
       <c r="K64" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L64" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M64" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -4212,13 +4215,13 @@
         <v>390</v>
       </c>
       <c r="K65" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L65" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M65" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -4253,13 +4256,13 @@
         <v>390</v>
       </c>
       <c r="K66" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L66" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M66" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -4294,13 +4297,13 @@
         <v>390</v>
       </c>
       <c r="K67" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L67" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M67" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -4335,13 +4338,13 @@
         <v>390</v>
       </c>
       <c r="K68" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L68" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M68" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -4376,13 +4379,13 @@
         <v>390</v>
       </c>
       <c r="K69" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L69" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M69" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -4417,13 +4420,13 @@
         <v>390</v>
       </c>
       <c r="K70" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L70" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M70" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -4458,13 +4461,13 @@
         <v>390</v>
       </c>
       <c r="K71" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L71" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M71" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -4499,13 +4502,13 @@
         <v>390</v>
       </c>
       <c r="K72" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L72" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M72" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -4540,13 +4543,13 @@
         <v>390</v>
       </c>
       <c r="K73" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L73" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M73" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -4581,13 +4584,13 @@
         <v>390</v>
       </c>
       <c r="K74" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L74" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M74" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -4622,13 +4625,13 @@
         <v>390</v>
       </c>
       <c r="K75" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L75" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M75" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -4663,13 +4666,13 @@
         <v>390</v>
       </c>
       <c r="K76" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L76" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M76" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -4704,13 +4707,13 @@
         <v>390</v>
       </c>
       <c r="K77" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L77" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M77" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -4745,13 +4748,13 @@
         <v>390</v>
       </c>
       <c r="K78" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L78" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M78" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -4786,13 +4789,13 @@
         <v>390</v>
       </c>
       <c r="K79" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L79" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M79" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -4827,13 +4830,13 @@
         <v>390</v>
       </c>
       <c r="K80" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L80" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M80" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -4868,13 +4871,13 @@
         <v>390</v>
       </c>
       <c r="K81" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L81" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M81" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -4909,13 +4912,13 @@
         <v>390</v>
       </c>
       <c r="K82" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L82" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M82" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -4950,13 +4953,13 @@
         <v>390</v>
       </c>
       <c r="K83" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L83" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M83" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -4991,13 +4994,13 @@
         <v>390</v>
       </c>
       <c r="K84" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L84" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M84" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -5032,13 +5035,13 @@
         <v>390</v>
       </c>
       <c r="K85" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L85" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M85" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -5073,13 +5076,13 @@
         <v>390</v>
       </c>
       <c r="K86" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L86" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M86" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -5114,13 +5117,13 @@
         <v>390</v>
       </c>
       <c r="K87" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L87" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M87" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -5155,13 +5158,13 @@
         <v>390</v>
       </c>
       <c r="K88" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L88" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M88" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -5196,13 +5199,13 @@
         <v>390</v>
       </c>
       <c r="K89" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L89" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M89" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -5237,13 +5240,13 @@
         <v>390</v>
       </c>
       <c r="K90" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L90" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M90" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -5278,13 +5281,13 @@
         <v>390</v>
       </c>
       <c r="K91" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L91" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M91" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -5319,13 +5322,13 @@
         <v>390</v>
       </c>
       <c r="K92" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L92" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M92" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -5360,13 +5363,13 @@
         <v>390</v>
       </c>
       <c r="K93" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L93" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M93" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -5401,13 +5404,13 @@
         <v>390</v>
       </c>
       <c r="K94" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L94" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M94" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -5442,13 +5445,13 @@
         <v>390</v>
       </c>
       <c r="K95" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L95" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M95" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -5483,13 +5486,13 @@
         <v>390</v>
       </c>
       <c r="K96" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L96" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M96" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -5524,13 +5527,13 @@
         <v>390</v>
       </c>
       <c r="K97" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L97" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M97" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -5565,13 +5568,13 @@
         <v>390</v>
       </c>
       <c r="K98" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L98" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M98" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -5606,13 +5609,13 @@
         <v>390</v>
       </c>
       <c r="K99" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L99" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M99" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -5647,13 +5650,13 @@
         <v>390</v>
       </c>
       <c r="K100" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L100" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M100" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -5688,13 +5691,13 @@
         <v>390</v>
       </c>
       <c r="K101" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L101" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M101" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -5729,13 +5732,13 @@
         <v>390</v>
       </c>
       <c r="K102" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L102" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M102" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -5770,13 +5773,13 @@
         <v>390</v>
       </c>
       <c r="K103" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L103" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M103" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -5811,13 +5814,13 @@
         <v>390</v>
       </c>
       <c r="K104" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L104" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M104" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -5852,13 +5855,13 @@
         <v>390</v>
       </c>
       <c r="K105" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L105" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M105" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -5893,13 +5896,13 @@
         <v>390</v>
       </c>
       <c r="K106" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L106" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M106" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -5934,13 +5937,13 @@
         <v>390</v>
       </c>
       <c r="K107" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L107" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M107" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -5975,13 +5978,13 @@
         <v>390</v>
       </c>
       <c r="K108" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L108" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M108" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -6016,13 +6019,13 @@
         <v>390</v>
       </c>
       <c r="K109" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L109" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M109" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -6057,13 +6060,13 @@
         <v>390</v>
       </c>
       <c r="K110" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L110" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M110" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -6098,13 +6101,13 @@
         <v>390</v>
       </c>
       <c r="K111" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L111" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M111" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -6139,13 +6142,13 @@
         <v>390</v>
       </c>
       <c r="K112" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L112" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M112" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -6180,13 +6183,13 @@
         <v>390</v>
       </c>
       <c r="K113" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L113" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M113" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -6221,13 +6224,13 @@
         <v>390</v>
       </c>
       <c r="K114" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L114" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M114" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -6262,13 +6265,13 @@
         <v>390</v>
       </c>
       <c r="K115" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L115" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M115" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -6303,13 +6306,13 @@
         <v>390</v>
       </c>
       <c r="K116" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L116" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M116" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -6344,13 +6347,13 @@
         <v>390</v>
       </c>
       <c r="K117" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L117" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M117" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -6385,13 +6388,13 @@
         <v>390</v>
       </c>
       <c r="K118" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L118" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M118" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -6426,13 +6429,13 @@
         <v>390</v>
       </c>
       <c r="K119" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L119" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M119" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -6467,13 +6470,13 @@
         <v>390</v>
       </c>
       <c r="K120" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L120" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M120" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -6508,13 +6511,13 @@
         <v>390</v>
       </c>
       <c r="K121" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L121" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M121" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -6549,13 +6552,13 @@
         <v>390</v>
       </c>
       <c r="K122" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L122" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M122" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -6590,13 +6593,13 @@
         <v>390</v>
       </c>
       <c r="K123" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L123" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M123" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -6631,13 +6634,13 @@
         <v>390</v>
       </c>
       <c r="K124" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L124" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M124" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -6672,13 +6675,13 @@
         <v>390</v>
       </c>
       <c r="K125" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L125" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M125" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -6713,13 +6716,13 @@
         <v>390</v>
       </c>
       <c r="K126" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L126" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M126" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -6754,13 +6757,13 @@
         <v>390</v>
       </c>
       <c r="K127" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L127" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M127" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -6795,13 +6798,13 @@
         <v>390</v>
       </c>
       <c r="K128" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L128" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M128" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -6836,13 +6839,13 @@
         <v>390</v>
       </c>
       <c r="K129" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L129" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M129" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -6877,13 +6880,13 @@
         <v>390</v>
       </c>
       <c r="K130" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L130" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M130" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -6918,13 +6921,13 @@
         <v>390</v>
       </c>
       <c r="K131" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L131" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M131" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -6959,13 +6962,13 @@
         <v>390</v>
       </c>
       <c r="K132" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L132" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M132" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -7000,13 +7003,13 @@
         <v>390</v>
       </c>
       <c r="K133" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L133" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M133" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -7041,13 +7044,13 @@
         <v>390</v>
       </c>
       <c r="K134" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L134" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M134" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -7082,13 +7085,13 @@
         <v>390</v>
       </c>
       <c r="K135" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L135" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M135" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -7123,13 +7126,13 @@
         <v>390</v>
       </c>
       <c r="K136" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L136" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M136" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -7164,13 +7167,13 @@
         <v>390</v>
       </c>
       <c r="K137" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L137" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M137" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -7205,13 +7208,13 @@
         <v>390</v>
       </c>
       <c r="K138" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L138" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M138" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -7246,13 +7249,13 @@
         <v>390</v>
       </c>
       <c r="K139" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L139" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M139" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -7287,13 +7290,13 @@
         <v>390</v>
       </c>
       <c r="K140" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L140" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M140" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -7328,13 +7331,13 @@
         <v>390</v>
       </c>
       <c r="K141" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L141" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M141" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -7369,13 +7372,13 @@
         <v>390</v>
       </c>
       <c r="K142" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L142" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M142" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -7410,13 +7413,13 @@
         <v>390</v>
       </c>
       <c r="K143" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L143" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M143" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -7451,13 +7454,13 @@
         <v>390</v>
       </c>
       <c r="K144" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L144" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M144" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -7492,13 +7495,13 @@
         <v>390</v>
       </c>
       <c r="K145" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L145" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M145" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -7533,13 +7536,13 @@
         <v>390</v>
       </c>
       <c r="K146" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L146" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M146" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -7574,13 +7577,13 @@
         <v>390</v>
       </c>
       <c r="K147" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L147" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M147" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -7615,13 +7618,13 @@
         <v>390</v>
       </c>
       <c r="K148" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L148" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M148" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -7656,13 +7659,13 @@
         <v>390</v>
       </c>
       <c r="K149" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L149" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M149" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -7697,13 +7700,13 @@
         <v>390</v>
       </c>
       <c r="K150" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L150" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M150" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -7738,13 +7741,13 @@
         <v>390</v>
       </c>
       <c r="K151" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L151" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M151" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -7779,13 +7782,13 @@
         <v>390</v>
       </c>
       <c r="K152" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L152" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M152" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -7820,13 +7823,13 @@
         <v>390</v>
       </c>
       <c r="K153" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L153" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M153" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -7861,13 +7864,13 @@
         <v>390</v>
       </c>
       <c r="K154" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L154" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M154" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -7902,13 +7905,13 @@
         <v>390</v>
       </c>
       <c r="K155" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L155" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M155" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -7943,13 +7946,13 @@
         <v>390</v>
       </c>
       <c r="K156" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L156" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M156" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -7984,13 +7987,13 @@
         <v>390</v>
       </c>
       <c r="K157" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L157" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M157" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -8025,13 +8028,13 @@
         <v>390</v>
       </c>
       <c r="K158" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L158" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M158" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -8066,13 +8069,13 @@
         <v>390</v>
       </c>
       <c r="K159" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L159" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M159" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -8107,13 +8110,13 @@
         <v>390</v>
       </c>
       <c r="K160" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L160" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M160" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -8148,13 +8151,13 @@
         <v>390</v>
       </c>
       <c r="K161" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L161" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M161" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -8189,13 +8192,13 @@
         <v>390</v>
       </c>
       <c r="K162" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L162" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M162" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="163" spans="1:13">
@@ -8230,13 +8233,13 @@
         <v>390</v>
       </c>
       <c r="K163" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L163" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M163" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -8271,13 +8274,13 @@
         <v>390</v>
       </c>
       <c r="K164" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L164" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M164" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="165" spans="1:13">
@@ -8312,13 +8315,13 @@
         <v>390</v>
       </c>
       <c r="K165" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L165" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M165" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="166" spans="1:13">
@@ -8353,13 +8356,13 @@
         <v>390</v>
       </c>
       <c r="K166" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L166" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M166" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="167" spans="1:13">
@@ -8394,13 +8397,13 @@
         <v>390</v>
       </c>
       <c r="K167" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L167" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M167" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -8435,13 +8438,13 @@
         <v>390</v>
       </c>
       <c r="K168" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L168" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M168" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="169" spans="1:13">
@@ -8476,13 +8479,13 @@
         <v>390</v>
       </c>
       <c r="K169" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L169" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M169" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="170" spans="1:13">
@@ -8517,13 +8520,13 @@
         <v>390</v>
       </c>
       <c r="K170" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L170" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M170" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="171" spans="1:13">
@@ -8558,13 +8561,13 @@
         <v>390</v>
       </c>
       <c r="K171" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L171" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M171" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="172" spans="1:13">
@@ -8599,13 +8602,13 @@
         <v>390</v>
       </c>
       <c r="K172" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L172" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M172" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="173" spans="1:13">
@@ -8640,13 +8643,13 @@
         <v>390</v>
       </c>
       <c r="K173" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L173" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M173" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="174" spans="1:13">
@@ -8681,13 +8684,13 @@
         <v>390</v>
       </c>
       <c r="K174" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L174" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M174" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="175" spans="1:13">
@@ -8722,13 +8725,13 @@
         <v>390</v>
       </c>
       <c r="K175" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L175" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M175" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="176" spans="1:13">
@@ -8763,13 +8766,13 @@
         <v>390</v>
       </c>
       <c r="K176" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L176" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M176" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -8804,13 +8807,13 @@
         <v>390</v>
       </c>
       <c r="K177" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L177" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M177" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -8845,13 +8848,13 @@
         <v>390</v>
       </c>
       <c r="K178" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L178" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M178" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -8886,13 +8889,13 @@
         <v>390</v>
       </c>
       <c r="K179" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L179" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M179" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -8927,13 +8930,13 @@
         <v>390</v>
       </c>
       <c r="K180" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L180" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M180" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -8968,13 +8971,13 @@
         <v>390</v>
       </c>
       <c r="K181" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L181" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M181" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -9009,13 +9012,13 @@
         <v>390</v>
       </c>
       <c r="K182" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L182" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M182" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -9050,13 +9053,13 @@
         <v>390</v>
       </c>
       <c r="K183" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L183" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M183" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="184" spans="1:13">
@@ -9091,13 +9094,13 @@
         <v>390</v>
       </c>
       <c r="K184" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L184" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M184" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="185" spans="1:13">
@@ -9132,13 +9135,13 @@
         <v>390</v>
       </c>
       <c r="K185" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L185" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M185" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="186" spans="1:13">
@@ -9173,13 +9176,13 @@
         <v>390</v>
       </c>
       <c r="K186" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L186" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M186" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="187" spans="1:13">
@@ -9214,13 +9217,13 @@
         <v>390</v>
       </c>
       <c r="K187" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L187" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M187" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="188" spans="1:13">
@@ -9255,13 +9258,13 @@
         <v>390</v>
       </c>
       <c r="K188" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L188" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M188" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="189" spans="1:13">
@@ -9296,13 +9299,13 @@
         <v>390</v>
       </c>
       <c r="K189" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L189" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M189" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="190" spans="1:13">
@@ -9337,13 +9340,13 @@
         <v>390</v>
       </c>
       <c r="K190" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L190" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M190" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="191" spans="1:13">
@@ -9378,13 +9381,13 @@
         <v>390</v>
       </c>
       <c r="K191" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L191" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M191" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="192" spans="1:13">
@@ -9419,13 +9422,13 @@
         <v>390</v>
       </c>
       <c r="K192" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L192" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M192" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="193" spans="1:13">
@@ -9460,13 +9463,13 @@
         <v>390</v>
       </c>
       <c r="K193" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L193" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M193" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="194" spans="1:13">
@@ -9501,13 +9504,13 @@
         <v>390</v>
       </c>
       <c r="K194" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L194" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M194" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="195" spans="1:13">
@@ -9542,13 +9545,13 @@
         <v>390</v>
       </c>
       <c r="K195" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L195" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M195" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="196" spans="1:13">
@@ -9583,13 +9586,13 @@
         <v>390</v>
       </c>
       <c r="K196" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L196" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M196" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="197" spans="1:13">
@@ -9624,13 +9627,13 @@
         <v>390</v>
       </c>
       <c r="K197" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L197" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M197" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="198" spans="1:13">
@@ -9665,13 +9668,13 @@
         <v>390</v>
       </c>
       <c r="K198" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L198" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M198" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="199" spans="1:13">
@@ -9706,13 +9709,13 @@
         <v>390</v>
       </c>
       <c r="K199" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L199" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M199" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="200" spans="1:13">
@@ -9747,13 +9750,13 @@
         <v>390</v>
       </c>
       <c r="K200" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L200" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M200" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="201" spans="1:13">
@@ -9788,13 +9791,13 @@
         <v>390</v>
       </c>
       <c r="K201" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L201" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M201" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="202" spans="1:13">
@@ -9829,13 +9832,13 @@
         <v>390</v>
       </c>
       <c r="K202" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L202" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M202" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="203" spans="1:13">
@@ -9870,13 +9873,13 @@
         <v>390</v>
       </c>
       <c r="K203" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L203" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M203" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="204" spans="1:13">
@@ -9911,13 +9914,13 @@
         <v>390</v>
       </c>
       <c r="K204" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L204" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M204" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="205" spans="1:13">
@@ -9952,13 +9955,13 @@
         <v>390</v>
       </c>
       <c r="K205" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L205" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M205" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="206" spans="1:13">
@@ -9993,13 +9996,13 @@
         <v>390</v>
       </c>
       <c r="K206" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L206" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M206" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="207" spans="1:13">
@@ -10034,13 +10037,13 @@
         <v>390</v>
       </c>
       <c r="K207" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L207" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M207" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="208" spans="1:13">
@@ -10075,13 +10078,13 @@
         <v>390</v>
       </c>
       <c r="K208" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L208" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M208" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="209" spans="1:13">
@@ -10116,13 +10119,13 @@
         <v>390</v>
       </c>
       <c r="K209" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L209" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M209" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="210" spans="1:13">
@@ -10157,13 +10160,13 @@
         <v>390</v>
       </c>
       <c r="K210" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L210" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M210" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="211" spans="1:13">
@@ -10198,13 +10201,13 @@
         <v>390</v>
       </c>
       <c r="K211" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L211" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M211" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="212" spans="1:13">
@@ -10239,13 +10242,13 @@
         <v>390</v>
       </c>
       <c r="K212" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L212" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M212" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="213" spans="1:13">
@@ -10280,13 +10283,13 @@
         <v>390</v>
       </c>
       <c r="K213" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L213" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M213" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="214" spans="1:13">
@@ -10321,13 +10324,13 @@
         <v>390</v>
       </c>
       <c r="K214" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L214" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M214" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="215" spans="1:13">
@@ -10362,13 +10365,13 @@
         <v>390</v>
       </c>
       <c r="K215" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L215" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M215" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="216" spans="1:13">
@@ -10403,13 +10406,13 @@
         <v>390</v>
       </c>
       <c r="K216" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L216" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M216" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="217" spans="1:13">
@@ -10444,13 +10447,13 @@
         <v>390</v>
       </c>
       <c r="K217" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L217" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M217" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="218" spans="1:13">
@@ -10485,13 +10488,13 @@
         <v>390</v>
       </c>
       <c r="K218" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L218" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M218" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="219" spans="1:13">
@@ -10526,13 +10529,13 @@
         <v>390</v>
       </c>
       <c r="K219" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L219" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M219" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="220" spans="1:13">
@@ -10567,13 +10570,13 @@
         <v>390</v>
       </c>
       <c r="K220" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L220" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M220" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="221" spans="1:13">
@@ -10608,13 +10611,13 @@
         <v>390</v>
       </c>
       <c r="K221" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L221" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M221" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="222" spans="1:13">
@@ -10649,13 +10652,13 @@
         <v>390</v>
       </c>
       <c r="K222" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L222" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M222" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="223" spans="1:13">
@@ -10690,13 +10693,13 @@
         <v>390</v>
       </c>
       <c r="K223" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L223" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M223" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="224" spans="1:13">
@@ -10731,13 +10734,13 @@
         <v>390</v>
       </c>
       <c r="K224" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L224" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M224" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="225" spans="1:13">
@@ -10772,13 +10775,13 @@
         <v>390</v>
       </c>
       <c r="K225" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L225" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M225" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="226" spans="1:13">
@@ -10813,13 +10816,13 @@
         <v>390</v>
       </c>
       <c r="K226" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L226" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M226" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="227" spans="1:13">
@@ -10854,13 +10857,13 @@
         <v>390</v>
       </c>
       <c r="K227" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L227" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M227" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="228" spans="1:13">
@@ -10895,13 +10898,13 @@
         <v>390</v>
       </c>
       <c r="K228" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L228" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M228" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="229" spans="1:13">
@@ -10936,13 +10939,13 @@
         <v>390</v>
       </c>
       <c r="K229" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L229" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M229" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="230" spans="1:13">
@@ -10977,13 +10980,13 @@
         <v>390</v>
       </c>
       <c r="K230" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L230" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M230" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="231" spans="1:13">
@@ -11018,13 +11021,13 @@
         <v>390</v>
       </c>
       <c r="K231" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L231" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M231" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="232" spans="1:13">
@@ -11059,13 +11062,13 @@
         <v>390</v>
       </c>
       <c r="K232" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L232" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M232" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="233" spans="1:13">
@@ -11100,13 +11103,13 @@
         <v>390</v>
       </c>
       <c r="K233" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L233" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M233" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="234" spans="1:13">
@@ -11141,13 +11144,13 @@
         <v>390</v>
       </c>
       <c r="K234" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L234" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M234" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="235" spans="1:13">
@@ -11182,13 +11185,13 @@
         <v>390</v>
       </c>
       <c r="K235" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L235" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M235" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="236" spans="1:13">
@@ -11223,13 +11226,13 @@
         <v>390</v>
       </c>
       <c r="K236" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L236" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M236" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="237" spans="1:13">
@@ -11264,13 +11267,13 @@
         <v>390</v>
       </c>
       <c r="K237" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L237" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M237" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="238" spans="1:13">
@@ -11305,13 +11308,13 @@
         <v>390</v>
       </c>
       <c r="K238" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L238" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M238" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
